--- a/FileShare/results/TotalMeasurements.1208843077890.byFile.MK.Lenovo.xlsx
+++ b/FileShare/results/TotalMeasurements.1208843077890.byFile.MK.Lenovo.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TotalMeasurements.1208843077890!$A$1:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -603,11 +603,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,7 +947,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G38"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1015,16 +1016,16 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>74533216</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>74533216</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>74533216</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>74533216</v>
       </c>
       <c r="H2">
@@ -1044,16 +1045,16 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>7822</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>7822</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>7822</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>7822</v>
       </c>
       <c r="H3">
@@ -1073,16 +1074,16 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>59132376</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>59385830</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>59350560</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>59741392</v>
       </c>
       <c r="H4">
@@ -1120,16 +1121,16 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2793</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2933</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>3073</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>3073</v>
       </c>
       <c r="H5">
@@ -1167,16 +1168,16 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>90387465</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>90597827</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>90808189</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>90808189</v>
       </c>
       <c r="H6">
@@ -1202,16 +1203,16 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3632</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3632</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>3632</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>3632</v>
       </c>
       <c r="H7">
@@ -1237,16 +1238,16 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>73892073</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>74038879</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>74185685</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>74185685</v>
       </c>
       <c r="H8">
@@ -1272,16 +1273,16 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3073</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>3632</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>4191</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>4191</v>
       </c>
       <c r="H9">
@@ -1307,16 +1308,16 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>40217961</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>40228157</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>40238354</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>40238354</v>
       </c>
       <c r="H10">
@@ -1342,16 +1343,16 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3073</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3073</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>3073</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>3073</v>
       </c>
       <c r="H11">
@@ -1377,16 +1378,16 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>50724603</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>50724603</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>50724603</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>50724603</v>
       </c>
       <c r="H12">
@@ -1406,16 +1407,16 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>3353</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>3353</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>3353</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>3353</v>
       </c>
       <c r="H13">
@@ -1435,16 +1436,16 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>19350504</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>19350504</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>19350504</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>19350504</v>
       </c>
       <c r="H14">
@@ -1464,16 +1465,16 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>3353</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3353</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>3353</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>3353</v>
       </c>
       <c r="H15">
@@ -1493,16 +1494,16 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>48410622</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>48410622</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>48410622</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>48410622</v>
       </c>
       <c r="H16">
@@ -1522,16 +1523,16 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>3631</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>3631</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>3631</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>3631</v>
       </c>
       <c r="H17">
@@ -1551,16 +1552,16 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>58280871</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>58486204</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>58691538</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>58691538</v>
       </c>
       <c r="H18">
@@ -1586,16 +1587,16 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>2793</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>3910</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>5028</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>5028</v>
       </c>
       <c r="H19">
@@ -1621,16 +1622,16 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>58956655</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>59074826</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>59192998</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>59192998</v>
       </c>
       <c r="H20">
@@ -1656,16 +1657,16 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>3073</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>3492</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>3911</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>3911</v>
       </c>
       <c r="H21">
@@ -1691,16 +1692,16 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1366589608</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1366589608</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>1366589608</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>1366589608</v>
       </c>
       <c r="H22">
@@ -1720,16 +1721,16 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>5588</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>5588</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>5588</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>5588</v>
       </c>
       <c r="H23">
@@ -1749,16 +1750,16 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1497763263</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1501511924</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>1505260585</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>1505260585</v>
       </c>
       <c r="H24">
@@ -1784,16 +1785,16 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>3911</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>4330</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>4749</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>4749</v>
       </c>
       <c r="H25">
@@ -1819,16 +1820,16 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2319342822</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>2586827562</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>2319359863</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>3121780003</v>
       </c>
       <c r="H26">
@@ -1860,16 +1861,16 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>3631</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>4097</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>4190</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>4470</v>
       </c>
       <c r="H27">
@@ -1895,11 +1896,19 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>25</v>
       </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
@@ -1911,16 +1920,16 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>2115033894</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2117130063</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>2115762758</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>2120593539</v>
       </c>
       <c r="H30">
@@ -1952,16 +1961,16 @@
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>3632</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>3911</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>3911</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>4190</v>
       </c>
       <c r="H31">
@@ -1993,16 +2002,16 @@
       <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>2140895841</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>2140895841</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>2140895841</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>2140895841</v>
       </c>
       <c r="H32">
@@ -2022,16 +2031,16 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>3352</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>3352</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>3352</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>3352</v>
       </c>
       <c r="H33">
@@ -2051,16 +2060,16 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>1855879169</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>1857369861</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>1858860554</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>1858860554</v>
       </c>
       <c r="H34">
@@ -2086,16 +2095,16 @@
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>3631</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>3910</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>4190</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>4190</v>
       </c>
       <c r="H35">
@@ -2115,6 +2124,10 @@
       <c r="A36" t="s">
         <v>29</v>
       </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
@@ -2126,16 +2139,16 @@
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>2364617850</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>2364617850</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>2364617850</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>2364617850</v>
       </c>
       <c r="H37">
@@ -2155,16 +2168,16 @@
       <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>4470</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>4470</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>4470</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>4470</v>
       </c>
       <c r="H38">
